--- a/src/main/resources/data/TestData.xlsx
+++ b/src/main/resources/data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\My Project\HotfixService\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\My Project\HotfixService\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3337F01-D926-4644-BB10-28245A4FDCCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A54454-A362-45A3-9636-EFC1678F1D3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81">
-  <si>
-    <t>cramerVersion</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
   <si>
     <t>isPreRequisite</t>
   </si>
@@ -291,6 +288,33 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>eof</t>
+  </si>
+  <si>
+    <t>cramerVersion</t>
+  </si>
+  <si>
+    <t>PQR 10.3</t>
   </si>
 </sst>
 </file>
@@ -626,7 +650,7 @@
   <dimension ref="B1:BA27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,214 +710,214 @@
   <sheetData>
     <row r="1" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" t="s">
         <v>63</v>
       </c>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" t="s">
-        <v>17</v>
-      </c>
-      <c r="V6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" t="s">
-        <v>19</v>
-      </c>
-      <c r="X6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC6" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" t="s">
         <v>66</v>
       </c>
-      <c r="AC6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>23</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>67</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
         <v>24</v>
       </c>
-      <c r="AG6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AM6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN6" t="s">
         <v>72</v>
       </c>
-      <c r="AL6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AO6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR6" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ6" t="s">
+      <c r="AS6" t="s">
         <v>76</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AT6" t="s">
         <v>27</v>
       </c>
-      <c r="AS6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>28</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>29</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>30</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>31</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>32</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>33</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>34</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
         <v>40</v>
       </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
       </c>
       <c r="M7" s="1">
         <v>44259</v>
@@ -905,96 +929,96 @@
         <v>44264</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q7">
         <v>10.3</v>
       </c>
       <c r="R7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
         <v>45</v>
       </c>
-      <c r="S7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>46</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>47</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AC7" t="s">
         <v>49</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>50</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AL7" t="s">
         <v>51</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT7" t="s">
         <v>52</v>
       </c>
-      <c r="AM7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR7" t="s">
+      <c r="AU7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV7" t="s">
         <v>54</v>
       </c>
-      <c r="AT7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV7" t="s">
+      <c r="AX7" t="s">
         <v>55</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>56</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA7" t="s">
         <v>57</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>41</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="1">
         <v>44259</v>
@@ -1006,96 +1030,96 @@
         <v>44264</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q8">
         <v>10.3</v>
       </c>
       <c r="R8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
         <v>45</v>
       </c>
-      <c r="S8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>46</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>47</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>48</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AC8" t="s">
         <v>49</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AL8" t="s">
         <v>51</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT8" t="s">
         <v>52</v>
       </c>
-      <c r="AM8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR8" t="s">
+      <c r="AU8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV8" t="s">
         <v>54</v>
       </c>
-      <c r="AT8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV8" t="s">
+      <c r="AX8" t="s">
         <v>55</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>56</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA8" t="s">
         <v>57</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>41</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>43</v>
       </c>
       <c r="M9" s="1">
         <v>44259</v>
@@ -1107,96 +1131,96 @@
         <v>44264</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q9">
         <v>10.3</v>
       </c>
       <c r="R9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
         <v>45</v>
       </c>
-      <c r="S9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" t="s">
-        <v>59</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>46</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>47</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>48</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AC9" t="s">
         <v>49</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>50</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AL9" t="s">
         <v>51</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT9" t="s">
         <v>52</v>
       </c>
-      <c r="AM9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR9" t="s">
+      <c r="AU9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV9" t="s">
         <v>54</v>
       </c>
-      <c r="AT9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV9" t="s">
+      <c r="AX9" t="s">
         <v>55</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>56</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA9" t="s">
         <v>57</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
         <v>40</v>
       </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>41</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>42</v>
-      </c>
-      <c r="L10" t="s">
-        <v>43</v>
       </c>
       <c r="M10" s="1">
         <v>44259</v>
@@ -1208,96 +1232,96 @@
         <v>44264</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q10">
         <v>10.3</v>
       </c>
       <c r="R10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
         <v>45</v>
       </c>
-      <c r="S10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" t="s">
-        <v>59</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>46</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>47</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>48</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AC10" t="s">
         <v>49</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>50</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AL10" t="s">
         <v>51</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT10" t="s">
         <v>52</v>
       </c>
-      <c r="AM10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR10" t="s">
+      <c r="AU10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV10" t="s">
         <v>54</v>
       </c>
-      <c r="AT10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV10" t="s">
+      <c r="AX10" t="s">
         <v>55</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>56</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA10" t="s">
         <v>57</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
         <v>40</v>
       </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>41</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>43</v>
       </c>
       <c r="M11" s="1">
         <v>44259</v>
@@ -1309,96 +1333,96 @@
         <v>44264</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q11">
         <v>10.3</v>
       </c>
       <c r="R11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
         <v>45</v>
       </c>
-      <c r="S11" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>46</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>47</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>48</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AC11" t="s">
         <v>49</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>50</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AL11" t="s">
         <v>51</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT11" t="s">
         <v>52</v>
       </c>
-      <c r="AM11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR11" t="s">
+      <c r="AU11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV11" t="s">
         <v>54</v>
       </c>
-      <c r="AT11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV11" t="s">
+      <c r="AX11" t="s">
         <v>55</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>56</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA11" t="s">
         <v>57</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
         <v>40</v>
       </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>41</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>42</v>
-      </c>
-      <c r="L12" t="s">
-        <v>43</v>
       </c>
       <c r="M12" s="1">
         <v>44259</v>
@@ -1410,132 +1434,132 @@
         <v>44264</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q12">
         <v>10.3</v>
       </c>
       <c r="R12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" t="s">
         <v>45</v>
       </c>
-      <c r="S12" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" t="s">
-        <v>59</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>46</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>47</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>48</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AC12" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>50</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AL12" t="s">
         <v>51</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT12" t="s">
         <v>52</v>
       </c>
-      <c r="AM12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR12" t="s">
+      <c r="AU12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV12" t="s">
         <v>54</v>
       </c>
-      <c r="AT12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV12" t="s">
+      <c r="AX12" t="s">
         <v>55</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>56</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA12" t="s">
         <v>57</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/TestData.xlsx
+++ b/src/main/resources/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\My Project\HotfixService\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A54454-A362-45A3-9636-EFC1678F1D3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653355C7-F30D-47B5-9BE0-A7964B74A6D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>fixedBy</t>
-  </si>
-  <si>
-    <t>requestDate</t>
   </si>
   <si>
     <t>targetDate</t>
@@ -236,9 +233,6 @@
     <t>NewCol</t>
   </si>
   <si>
-    <t>orNo</t>
-  </si>
-  <si>
     <t>ecpReplaced</t>
   </si>
   <si>
@@ -315,6 +309,14 @@
   </si>
   <si>
     <t>PQR 10.3</t>
+  </si>
+  <si>
+    <t>Or
+No</t>
+  </si>
+  <si>
+    <t>Request
+Date</t>
   </si>
 </sst>
 </file>
@@ -364,9 +366,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +655,7 @@
   <dimension ref="B1:BA27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -710,32 +715,32 @@
   <sheetData>
     <row r="1" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:53" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:53" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -747,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -755,8 +760,8 @@
       <c r="H6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
-        <v>62</v>
+      <c r="I6" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -767,157 +772,157 @@
       <c r="L6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>10</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>11</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>13</v>
-      </c>
-      <c r="R6" t="s">
-        <v>14</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
       </c>
       <c r="T6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="s">
         <v>15</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>16</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>17</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>18</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC6" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE6" t="s">
         <v>64</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG6" t="s">
         <v>65</v>
       </c>
-      <c r="AC6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
         <v>66</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AI6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL6" t="s">
         <v>23</v>
       </c>
-      <c r="AG6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AM6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN6" t="s">
         <v>70</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AO6" t="s">
         <v>71</v>
       </c>
-      <c r="AL6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AP6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR6" t="s">
         <v>25</v>
       </c>
-      <c r="AN6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP6" t="s">
+      <c r="AS6" t="s">
         <v>74</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR6" t="s">
+      <c r="AT6" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>27</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>28</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>30</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>31</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>32</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>33</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="1">
         <v>44259</v>
@@ -929,96 +934,96 @@
         <v>44264</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>10.3</v>
       </c>
       <c r="R7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" t="s">
         <v>44</v>
       </c>
-      <c r="S7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" t="s">
-        <v>58</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>45</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>46</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>47</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AC7" t="s">
         <v>48</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AL7" t="s">
         <v>50</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT7" t="s">
         <v>51</v>
       </c>
-      <c r="AM7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="s">
+      <c r="AU7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV7" t="s">
         <v>53</v>
       </c>
-      <c r="AT7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV7" t="s">
+      <c r="AX7" t="s">
         <v>54</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>55</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA7" t="s">
         <v>56</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>41</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
       </c>
       <c r="M8" s="1">
         <v>44259</v>
@@ -1030,96 +1035,96 @@
         <v>44264</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8">
         <v>10.3</v>
       </c>
       <c r="R8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" t="s">
         <v>44</v>
       </c>
-      <c r="S8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" t="s">
-        <v>58</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>45</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>46</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AC8" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AL8" t="s">
         <v>50</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT8" t="s">
         <v>51</v>
       </c>
-      <c r="AM8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="s">
+      <c r="AU8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV8" t="s">
         <v>53</v>
       </c>
-      <c r="AT8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV8" t="s">
+      <c r="AX8" t="s">
         <v>54</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>55</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA8" t="s">
         <v>56</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>40</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
       </c>
       <c r="M9" s="1">
         <v>44259</v>
@@ -1131,96 +1136,96 @@
         <v>44264</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q9">
         <v>10.3</v>
       </c>
       <c r="R9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" t="s">
         <v>44</v>
       </c>
-      <c r="S9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>45</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>46</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AC9" t="s">
         <v>48</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AL9" t="s">
         <v>50</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT9" t="s">
         <v>51</v>
       </c>
-      <c r="AM9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="s">
+      <c r="AU9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV9" t="s">
         <v>53</v>
       </c>
-      <c r="AT9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV9" t="s">
+      <c r="AX9" t="s">
         <v>54</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>55</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA9" t="s">
         <v>56</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>40</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>41</v>
-      </c>
-      <c r="L10" t="s">
-        <v>42</v>
       </c>
       <c r="M10" s="1">
         <v>44259</v>
@@ -1232,96 +1237,96 @@
         <v>44264</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q10">
         <v>10.3</v>
       </c>
       <c r="R10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" t="s">
         <v>44</v>
       </c>
-      <c r="S10" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" t="s">
-        <v>58</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>45</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>46</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>47</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AC10" t="s">
         <v>48</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AL10" t="s">
         <v>50</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT10" t="s">
         <v>51</v>
       </c>
-      <c r="AM10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="s">
+      <c r="AU10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV10" t="s">
         <v>53</v>
       </c>
-      <c r="AT10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV10" t="s">
+      <c r="AX10" t="s">
         <v>54</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>55</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA10" t="s">
         <v>56</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>40</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>41</v>
-      </c>
-      <c r="L11" t="s">
-        <v>42</v>
       </c>
       <c r="M11" s="1">
         <v>44259</v>
@@ -1333,96 +1338,96 @@
         <v>44264</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q11">
         <v>10.3</v>
       </c>
       <c r="R11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" t="s">
         <v>44</v>
       </c>
-      <c r="S11" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>45</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>46</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>47</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AC11" t="s">
         <v>48</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AL11" t="s">
         <v>50</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT11" t="s">
         <v>51</v>
       </c>
-      <c r="AM11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="s">
+      <c r="AU11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV11" t="s">
         <v>53</v>
       </c>
-      <c r="AT11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV11" t="s">
+      <c r="AX11" t="s">
         <v>54</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>55</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA11" t="s">
         <v>56</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
       </c>
       <c r="M12" s="1">
         <v>44259</v>
@@ -1434,132 +1439,132 @@
         <v>44264</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>10.3</v>
       </c>
       <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" t="s">
         <v>44</v>
       </c>
-      <c r="S12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>45</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>46</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>47</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AC12" t="s">
         <v>48</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AL12" t="s">
         <v>50</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT12" t="s">
         <v>51</v>
       </c>
-      <c r="AM12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="s">
+      <c r="AU12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV12" t="s">
         <v>53</v>
       </c>
-      <c r="AT12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV12" t="s">
+      <c r="AX12" t="s">
         <v>54</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>55</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA12" t="s">
         <v>56</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/TestData.xlsx
+++ b/src/main/resources/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\My Project\HotfixService\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653355C7-F30D-47B5-9BE0-A7964B74A6D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD570194-88D1-4EF1-8501-F21F860E0E1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
